--- a/out_booth_427/suspect_summary.xlsx
+++ b/out_booth_427/suspect_summary.xlsx
@@ -576,10 +576,18 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Serial number 1 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3140,10 +3148,18 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Serial number 39 does not have any valid parent or spouse relationship with other voters in house number 9 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3642,10 +3658,18 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Serial number 46 does not have any valid parent or spouse relationship with other voters in house number 10-1 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3708,16 +3732,16 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Serial number 47 has age 3, below voting age.</t>
+          <t>Serial number 47 does not have any valid parent or spouse relationship with other voters in house number 10-1 on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 47 has age 3, below voting age.</t>
         </is>
       </c>
     </row>
@@ -4268,16 +4292,16 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Serial number 55 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 55 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 55 does not have any valid parent or spouse relationship with other voters in house number 12-33 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
         </is>
       </c>
     </row>
@@ -4408,18 +4432,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Serial number 57 does not have any valid parent or spouse relationship with other voters in house number 12-44 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4482,18 +4498,10 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Serial number 58 is the only voter listed under house number 12/44 on street '1-Ward No 23 Madhusoodhanan Nagar' in booth 427.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4968,10 +4976,18 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Serial number 65 does not have any valid parent or spouse relationship with other voters in house number 14 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5034,16 +5050,16 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Serial number 66 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 66 does not have any valid parent or spouse relationship with other voters in house number 14 on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 66 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -5730,12 +5746,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Serial number 76 is the only voter listed under house number 17-21 on street '1-Ward No 23 Madhusoodhanan Nagar' in booth 427.</t>
+          <t>Serial number 76 does not have any valid parent or spouse relationship with other voters in house number 17-21 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
         </is>
       </c>
     </row>
@@ -5804,12 +5820,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Serial number 77 is the only voter listed under house number 17/21 on street '1-Ward No 23 Madhusoodhanan Nagar' in booth 427.</t>
+          <t>Serial number 77 does not have any valid parent or spouse relationship with other voters in house number 17/21 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
         </is>
       </c>
     </row>
@@ -6624,10 +6640,18 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Serial number 89 does not have any valid parent or spouse relationship with other voters in house number 20 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -10906,16 +10930,16 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 150 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | House number 'NO' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -11202,16 +11226,16 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 154 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | House number 'NO' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -11276,16 +11300,16 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>Serial number 155 was flagged due to rule: INVALID_EPIC_ID. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 155 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 155 was flagged due to rule: INVALID_EPIC_ID. | House number 'NO' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -13350,10 +13374,18 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>Serial number 184 does not have any valid parent or spouse relationship with other voters in house number 7 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -14396,10 +14428,18 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>0</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Serial number 199 does not have any valid parent or spouse relationship with other voters in house number 12 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -15880,10 +15920,18 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>0</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Serial number 221 does not have any valid parent or spouse relationship with other voters in house number 184 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -16152,10 +16200,18 @@
         </is>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Serial number 225 does not have any valid parent or spouse relationship with other voters in house number 20 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -16556,10 +16612,18 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>Serial number 231 does not have any valid parent or spouse relationship with other voters in house number 22 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -16622,10 +16686,18 @@
         </is>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Serial number 232 does not have any valid parent or spouse relationship with other voters in house number 22 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -17026,10 +17098,18 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>0</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Serial number 238 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -17636,10 +17716,18 @@
         </is>
       </c>
       <c r="N248" t="n">
-        <v>0</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>Serial number 247 does not have any valid parent or spouse relationship with other voters in house number 27 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -17908,10 +17996,18 @@
         </is>
       </c>
       <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Serial number 251 does not have any valid parent or spouse relationship with other voters in house number 27 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -19926,10 +20022,18 @@
         </is>
       </c>
       <c r="N281" t="n">
-        <v>0</v>
-      </c>
-      <c r="O281" t="inlineStr"/>
-      <c r="P281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>Serial number 280 does not have any valid parent or spouse relationship with other voters in house number 39 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -19992,10 +20096,18 @@
         </is>
       </c>
       <c r="N282" t="n">
-        <v>0</v>
-      </c>
-      <c r="O282" t="inlineStr"/>
-      <c r="P282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>Serial number 281 does not have any valid parent or spouse relationship with other voters in house number 39 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -21666,10 +21778,18 @@
         </is>
       </c>
       <c r="N307" t="n">
-        <v>0</v>
-      </c>
-      <c r="O307" t="inlineStr"/>
-      <c r="P307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>Serial number 306 does not have any valid parent or spouse relationship with other voters in house number 47 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -24534,10 +24654,18 @@
         </is>
       </c>
       <c r="N349" t="n">
-        <v>0</v>
-      </c>
-      <c r="O349" t="inlineStr"/>
-      <c r="P349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>Serial number 348 does not have any valid parent or spouse relationship with other voters in house number 65 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -24666,10 +24794,18 @@
         </is>
       </c>
       <c r="N351" t="n">
-        <v>0</v>
-      </c>
-      <c r="O351" t="inlineStr"/>
-      <c r="P351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>Serial number 350 does not have any valid parent or spouse relationship with other voters in house number 65 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -25210,10 +25346,18 @@
         </is>
       </c>
       <c r="N359" t="n">
-        <v>0</v>
-      </c>
-      <c r="O359" t="inlineStr"/>
-      <c r="P359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>Serial number 358 does not have any valid parent or spouse relationship with other voters in house number 67 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -26568,16 +26712,16 @@
         </is>
       </c>
       <c r="N378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>Serial number 377 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 377 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 377 does not have any valid parent or spouse relationship with other voters in house number 74 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -27112,10 +27256,18 @@
         </is>
       </c>
       <c r="N386" t="n">
-        <v>0</v>
-      </c>
-      <c r="O386" t="inlineStr"/>
-      <c r="P386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>Serial number 385 does not have any valid parent or spouse relationship with other voters in house number 7 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -27244,10 +27396,18 @@
         </is>
       </c>
       <c r="N388" t="n">
-        <v>0</v>
-      </c>
-      <c r="O388" t="inlineStr"/>
-      <c r="P388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>Serial number 387 does not have any valid parent or spouse relationship with other voters in house number 77 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -27920,10 +28080,18 @@
         </is>
       </c>
       <c r="N398" t="n">
-        <v>0</v>
-      </c>
-      <c r="O398" t="inlineStr"/>
-      <c r="P398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>Serial number 397 does not have any valid parent or spouse relationship with other voters in house number 81 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -27986,10 +28154,18 @@
         </is>
       </c>
       <c r="N399" t="n">
-        <v>0</v>
-      </c>
-      <c r="O399" t="inlineStr"/>
-      <c r="P399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>Serial number 398 does not have any valid parent or spouse relationship with other voters in house number 81 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -28662,10 +28838,18 @@
         </is>
       </c>
       <c r="N409" t="n">
-        <v>0</v>
-      </c>
-      <c r="O409" t="inlineStr"/>
-      <c r="P409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>Serial number 408 does not have any valid parent or spouse relationship with other voters in house number 85 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -29148,10 +29332,18 @@
         </is>
       </c>
       <c r="N416" t="n">
-        <v>0</v>
-      </c>
-      <c r="O416" t="inlineStr"/>
-      <c r="P416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>Serial number 415 does not have any valid parent or spouse relationship with other voters in house number 88-A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -30120,10 +30312,18 @@
         </is>
       </c>
       <c r="N430" t="n">
-        <v>0</v>
-      </c>
-      <c r="O430" t="inlineStr"/>
-      <c r="P430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>Serial number 429 does not have any valid parent or spouse relationship with other voters in house number 94 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -30318,16 +30518,16 @@
         </is>
       </c>
       <c r="N433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>Serial number 432 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 432 does not have any valid parent or spouse relationship with other voters in house number 94 on street '3-Ward No 7 Athikkuttai, Anna Nagar'. | Serial number 432 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -30944,10 +31144,18 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>0</v>
-      </c>
-      <c r="O442" t="inlineStr"/>
-      <c r="P442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>Serial number 441 does not have any valid parent or spouse relationship with other voters in house number 98 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -31010,10 +31218,18 @@
         </is>
       </c>
       <c r="N443" t="n">
-        <v>0</v>
-      </c>
-      <c r="O443" t="inlineStr"/>
-      <c r="P443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>Serial number 442 does not have any valid parent or spouse relationship with other voters in house number 98 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -31216,10 +31432,18 @@
         </is>
       </c>
       <c r="N446" t="n">
-        <v>0</v>
-      </c>
-      <c r="O446" t="inlineStr"/>
-      <c r="P446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>Serial number 445 does not have any valid parent or spouse relationship with other voters in house number 99 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -31282,10 +31506,18 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>0</v>
-      </c>
-      <c r="O447" t="inlineStr"/>
-      <c r="P447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>Serial number 446 does not have any valid parent or spouse relationship with other voters in house number 99 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -32344,10 +32576,18 @@
         </is>
       </c>
       <c r="N462" t="n">
-        <v>0</v>
-      </c>
-      <c r="O462" t="inlineStr"/>
-      <c r="P462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>Serial number 461 does not have any valid parent or spouse relationship with other voters in house number 1024 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -32410,10 +32650,18 @@
         </is>
       </c>
       <c r="N463" t="n">
-        <v>0</v>
-      </c>
-      <c r="O463" t="inlineStr"/>
-      <c r="P463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>Serial number 462 does not have any valid parent or spouse relationship with other voters in house number 1024 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -33514,10 +33762,18 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>0</v>
-      </c>
-      <c r="O479" t="inlineStr"/>
-      <c r="P479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>Serial number 478 does not have any valid parent or spouse relationship with other voters in house number 104 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -33720,10 +33976,18 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>0</v>
-      </c>
-      <c r="O482" t="inlineStr"/>
-      <c r="P482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>Serial number 481 does not have any valid parent or spouse relationship with other voters in house number 107 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -33786,10 +34050,18 @@
         </is>
       </c>
       <c r="N483" t="n">
-        <v>0</v>
-      </c>
-      <c r="O483" t="inlineStr"/>
-      <c r="P483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>Serial number 482 does not have any valid parent or spouse relationship with other voters in house number 107 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -34248,10 +34520,18 @@
         </is>
       </c>
       <c r="N490" t="n">
-        <v>0</v>
-      </c>
-      <c r="O490" t="inlineStr"/>
-      <c r="P490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>Serial number 489 does not have any valid parent or spouse relationship with other voters in house number 109 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -34676,10 +34956,18 @@
         </is>
       </c>
       <c r="N496" t="n">
-        <v>0</v>
-      </c>
-      <c r="O496" t="inlineStr"/>
-      <c r="P496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>Serial number 495 does not have any valid parent or spouse relationship with other voters in house number 111 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -34742,10 +35030,18 @@
         </is>
       </c>
       <c r="N497" t="n">
-        <v>0</v>
-      </c>
-      <c r="O497" t="inlineStr"/>
-      <c r="P497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>Serial number 496 does not have any valid parent or spouse relationship with other voters in house number 111 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -36794,10 +37090,18 @@
         </is>
       </c>
       <c r="N527" t="n">
-        <v>0</v>
-      </c>
-      <c r="O527" t="inlineStr"/>
-      <c r="P527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>Serial number 526 does not have any valid parent or spouse relationship with other voters in house number 121 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -36992,10 +37296,18 @@
         </is>
       </c>
       <c r="N530" t="n">
-        <v>0</v>
-      </c>
-      <c r="O530" t="inlineStr"/>
-      <c r="P530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>Serial number 529 does not have any valid parent or spouse relationship with other voters in house number 122 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -37652,10 +37964,18 @@
         </is>
       </c>
       <c r="N540" t="n">
-        <v>0</v>
-      </c>
-      <c r="O540" t="inlineStr"/>
-      <c r="P540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>Serial number 539 does not have any valid parent or spouse relationship with other voters in house number 124 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -37718,10 +38038,18 @@
         </is>
       </c>
       <c r="N541" t="n">
-        <v>0</v>
-      </c>
-      <c r="O541" t="inlineStr"/>
-      <c r="P541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>Serial number 540 does not have any valid parent or spouse relationship with other voters in house number 124 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -37916,10 +38244,18 @@
         </is>
       </c>
       <c r="N544" t="n">
-        <v>0</v>
-      </c>
-      <c r="O544" t="inlineStr"/>
-      <c r="P544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>Serial number 543 does not have any valid parent or spouse relationship with other voters in house number 124 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -37982,10 +38318,18 @@
         </is>
       </c>
       <c r="N545" t="n">
-        <v>0</v>
-      </c>
-      <c r="O545" t="inlineStr"/>
-      <c r="P545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>Serial number 544 does not have any valid parent or spouse relationship with other voters in house number 125 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -39202,10 +39546,18 @@
         </is>
       </c>
       <c r="N563" t="n">
-        <v>0</v>
-      </c>
-      <c r="O563" t="inlineStr"/>
-      <c r="P563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>Serial number 562 does not have any valid parent or spouse relationship with other voters in house number 133 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -39952,10 +40304,18 @@
         </is>
       </c>
       <c r="N574" t="n">
-        <v>0</v>
-      </c>
-      <c r="O574" t="inlineStr"/>
-      <c r="P574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P574" t="inlineStr">
+        <is>
+          <t>Serial number 573 does not have any valid parent or spouse relationship with other voters in house number 139 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -40084,10 +40444,18 @@
         </is>
       </c>
       <c r="N576" t="n">
-        <v>0</v>
-      </c>
-      <c r="O576" t="inlineStr"/>
-      <c r="P576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P576" t="inlineStr">
+        <is>
+          <t>Serial number 575 does not have any valid parent or spouse relationship with other voters in house number 139 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -41098,10 +41466,18 @@
         </is>
       </c>
       <c r="N591" t="n">
-        <v>0</v>
-      </c>
-      <c r="O591" t="inlineStr"/>
-      <c r="P591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P591" t="inlineStr">
+        <is>
+          <t>Serial number 590 does not have any valid parent or spouse relationship with other voters in house number 146 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -41238,10 +41614,18 @@
         </is>
       </c>
       <c r="N593" t="n">
-        <v>0</v>
-      </c>
-      <c r="O593" t="inlineStr"/>
-      <c r="P593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>Serial number 592 does not have any valid parent or spouse relationship with other voters in house number 146 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -43158,10 +43542,18 @@
         </is>
       </c>
       <c r="N621" t="n">
-        <v>0</v>
-      </c>
-      <c r="O621" t="inlineStr"/>
-      <c r="P621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P621" t="inlineStr">
+        <is>
+          <t>Serial number 620 does not have any valid parent or spouse relationship with other voters in house number 157 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -43504,10 +43896,18 @@
         </is>
       </c>
       <c r="N626" t="n">
-        <v>0</v>
-      </c>
-      <c r="O626" t="inlineStr"/>
-      <c r="P626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P626" t="inlineStr">
+        <is>
+          <t>Serial number 625 does not have any valid parent or spouse relationship with other voters in house number 161 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -44708,10 +45108,18 @@
         </is>
       </c>
       <c r="N644" t="n">
-        <v>0</v>
-      </c>
-      <c r="O644" t="inlineStr"/>
-      <c r="P644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P644" t="inlineStr">
+        <is>
+          <t>Serial number 643 does not have any valid parent or spouse relationship with other voters in house number 165 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -45054,10 +45462,18 @@
         </is>
       </c>
       <c r="N649" t="n">
-        <v>0</v>
-      </c>
-      <c r="O649" t="inlineStr"/>
-      <c r="P649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P649" t="inlineStr">
+        <is>
+          <t>Serial number 648 does not have any valid parent or spouse relationship with other voters in house number 168 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -45458,10 +45874,18 @@
         </is>
       </c>
       <c r="N655" t="n">
-        <v>0</v>
-      </c>
-      <c r="O655" t="inlineStr"/>
-      <c r="P655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>Serial number 654 does not have any valid parent or spouse relationship with other voters in house number 172 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -45524,16 +45948,16 @@
         </is>
       </c>
       <c r="N656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P656" t="inlineStr">
         <is>
-          <t>Serial number 655 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 655 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 655 does not have any valid parent or spouse relationship with other voters in house number 173 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -45598,10 +46022,18 @@
         </is>
       </c>
       <c r="N657" t="n">
-        <v>0</v>
-      </c>
-      <c r="O657" t="inlineStr"/>
-      <c r="P657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P657" t="inlineStr">
+        <is>
+          <t>Serial number 656 does not have any valid parent or spouse relationship with other voters in house number 173 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -45944,10 +46376,18 @@
         </is>
       </c>
       <c r="N662" t="n">
-        <v>0</v>
-      </c>
-      <c r="O662" t="inlineStr"/>
-      <c r="P662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P662" t="inlineStr">
+        <is>
+          <t>Serial number 661 does not have any valid parent or spouse relationship with other voters in house number 177 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -46842,10 +47282,18 @@
         </is>
       </c>
       <c r="N675" t="n">
-        <v>0</v>
-      </c>
-      <c r="O675" t="inlineStr"/>
-      <c r="P675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O675" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P675" t="inlineStr">
+        <is>
+          <t>Serial number 674 does not have any valid parent or spouse relationship with other voters in house number 179 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -46974,10 +47422,18 @@
         </is>
       </c>
       <c r="N677" t="n">
-        <v>0</v>
-      </c>
-      <c r="O677" t="inlineStr"/>
-      <c r="P677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O677" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P677" t="inlineStr">
+        <is>
+          <t>Serial number 676 does not have any valid parent or spouse relationship with other voters in house number 179 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -47642,10 +48098,18 @@
         </is>
       </c>
       <c r="N687" t="n">
-        <v>0</v>
-      </c>
-      <c r="O687" t="inlineStr"/>
-      <c r="P687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P687" t="inlineStr">
+        <is>
+          <t>Serial number 686 does not have any valid parent or spouse relationship with other voters in house number 183 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -47988,10 +48452,18 @@
         </is>
       </c>
       <c r="N692" t="n">
-        <v>0</v>
-      </c>
-      <c r="O692" t="inlineStr"/>
-      <c r="P692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O692" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P692" t="inlineStr">
+        <is>
+          <t>Serial number 691 does not have any valid parent or spouse relationship with other voters in house number 184 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -48054,10 +48526,18 @@
         </is>
       </c>
       <c r="N693" t="n">
-        <v>0</v>
-      </c>
-      <c r="O693" t="inlineStr"/>
-      <c r="P693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O693" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P693" t="inlineStr">
+        <is>
+          <t>Serial number 692 does not have any valid parent or spouse relationship with other voters in house number 185 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -48120,10 +48600,18 @@
         </is>
       </c>
       <c r="N694" t="n">
-        <v>0</v>
-      </c>
-      <c r="O694" t="inlineStr"/>
-      <c r="P694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P694" t="inlineStr">
+        <is>
+          <t>Serial number 693 does not have any valid parent or spouse relationship with other voters in house number 185 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -48828,10 +49316,18 @@
         </is>
       </c>
       <c r="N704" t="n">
-        <v>0</v>
-      </c>
-      <c r="O704" t="inlineStr"/>
-      <c r="P704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P704" t="inlineStr">
+        <is>
+          <t>Serial number 703 does not have any valid parent or spouse relationship with other voters in house number 192 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -50270,16 +50766,16 @@
         </is>
       </c>
       <c r="N725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P725" t="inlineStr">
         <is>
-          <t>Serial number 724 does not have any valid parent or spouse relationship with other voters in house number 202 on street '3-Ward No 7 Athikkuttai, Anna Nagar'. | Serial number 724 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 724 does not have any valid parent or spouse relationship with other voters in house number 202 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -50830,10 +51326,18 @@
         </is>
       </c>
       <c r="N733" t="n">
-        <v>0</v>
-      </c>
-      <c r="O733" t="inlineStr"/>
-      <c r="P733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O733" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P733" t="inlineStr">
+        <is>
+          <t>Serial number 732 does not have any valid parent or spouse relationship with other voters in house number 206 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -51110,16 +51614,16 @@
         </is>
       </c>
       <c r="N737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P737" t="inlineStr">
         <is>
-          <t>Serial number 736 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 736 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 736 does not have any valid parent or spouse relationship with other voters in house number 210 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -52148,10 +52652,18 @@
         </is>
       </c>
       <c r="N752" t="n">
-        <v>0</v>
-      </c>
-      <c r="O752" t="inlineStr"/>
-      <c r="P752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O752" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P752" t="inlineStr">
+        <is>
+          <t>Serial number 751 does not have any valid parent or spouse relationship with other voters in house number 218 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
@@ -52214,10 +52726,18 @@
         </is>
       </c>
       <c r="N753" t="n">
-        <v>0</v>
-      </c>
-      <c r="O753" t="inlineStr"/>
-      <c r="P753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P753" t="inlineStr">
+        <is>
+          <t>Serial number 752 does not have any valid parent or spouse relationship with other voters in house number 218 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
@@ -52956,16 +53476,16 @@
         </is>
       </c>
       <c r="N764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P764" t="inlineStr">
         <is>
-          <t>Serial number 763 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 763 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 763 does not have any valid parent or spouse relationship with other voters in house number 222 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -55560,10 +56080,18 @@
         </is>
       </c>
       <c r="N802" t="n">
-        <v>0</v>
-      </c>
-      <c r="O802" t="inlineStr"/>
-      <c r="P802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O802" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P802" t="inlineStr">
+        <is>
+          <t>Serial number 801 does not have any valid parent or spouse relationship with other voters in house number 244 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -55626,16 +56154,16 @@
         </is>
       </c>
       <c r="N803" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P803" t="inlineStr">
         <is>
-          <t>Serial number 802 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 802 does not have any valid parent or spouse relationship with other voters in house number 244 on street '3-Ward No 7 Athikkuttai, Anna Nagar'. | Serial number 802 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -55700,10 +56228,18 @@
         </is>
       </c>
       <c r="N804" t="n">
-        <v>0</v>
-      </c>
-      <c r="O804" t="inlineStr"/>
-      <c r="P804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O804" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P804" t="inlineStr">
+        <is>
+          <t>Serial number 803 does not have any valid parent or spouse relationship with other voters in house number 244 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
@@ -56170,10 +56706,18 @@
         </is>
       </c>
       <c r="N811" t="n">
-        <v>0</v>
-      </c>
-      <c r="O811" t="inlineStr"/>
-      <c r="P811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O811" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P811" t="inlineStr">
+        <is>
+          <t>Serial number 810 does not have any valid parent or spouse relationship with other voters in house number 246 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
@@ -57018,10 +57562,18 @@
         </is>
       </c>
       <c r="N823" t="n">
-        <v>0</v>
-      </c>
-      <c r="O823" t="inlineStr"/>
-      <c r="P823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O823" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P823" t="inlineStr">
+        <is>
+          <t>Serial number 822 does not have any valid parent or spouse relationship with other voters in house number 254 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
@@ -57224,10 +57776,18 @@
         </is>
       </c>
       <c r="N826" t="n">
-        <v>0</v>
-      </c>
-      <c r="O826" t="inlineStr"/>
-      <c r="P826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O826" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P826" t="inlineStr">
+        <is>
+          <t>Serial number 825 does not have any valid parent or spouse relationship with other voters in house number 257 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -57290,16 +57850,16 @@
         </is>
       </c>
       <c r="N827" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P827" t="inlineStr">
         <is>
-          <t>Serial number 826 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 826 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 826 does not have any valid parent or spouse relationship with other voters in house number 257 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -57562,10 +58122,18 @@
         </is>
       </c>
       <c r="N831" t="n">
-        <v>0</v>
-      </c>
-      <c r="O831" t="inlineStr"/>
-      <c r="P831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P831" t="inlineStr">
+        <is>
+          <t>Serial number 830 does not have any valid parent or spouse relationship with other voters in house number 258 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="n">

--- a/out_booth_427/suspect_summary.xlsx
+++ b/out_booth_427/suspect_summary.xlsx
@@ -1178,10 +1178,18 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Serial number 10 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1244,10 +1252,18 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Serial number 11 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1516,10 +1532,18 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Serial number 15 does not have any valid parent or spouse relationship with other voters in house number 4 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1846,10 +1870,18 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Serial number 20 does not have any valid parent or spouse relationship with other voters in house number 4 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2061,7 +2093,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Serial number 23 does not have a valid house number recorded.</t>
+          <t>Serial number 23 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -2390,10 +2422,18 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Serial number 28 does not have any valid parent or spouse relationship with other voters in house number 6 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3370,18 +3410,10 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Serial number 42 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3444,18 +3476,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Serial number 43 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3518,18 +3542,10 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Serial number 44 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3658,16 +3674,16 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE</t>
+          <t>ADOPTED_NO_RELATIVE, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Serial number 46 does not have any valid parent or spouse relationship with other voters in house number 10-1 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+          <t>Serial number 46 was flagged due to rule: TWO_WIVES_SAME_HUSBAND. | Serial number 46 does not have any valid parent or spouse relationship with other voters in house number 10-1 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
         </is>
       </c>
     </row>
@@ -3732,16 +3748,16 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, TWO_WIVES_SAME_HUSBAND, UNDER_18</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Serial number 47 does not have any valid parent or spouse relationship with other voters in house number 10-1 on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 47 has age 3, below voting age.</t>
+          <t>Serial number 47 was flagged due to rule: TWO_WIVES_SAME_HUSBAND. | Serial number 47 does not have any valid parent or spouse relationship with other voters in house number 10-1 on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 47 has age 3, below voting age.</t>
         </is>
       </c>
     </row>
@@ -3806,10 +3822,18 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Serial number 48 does not have any valid parent or spouse relationship with other voters in house number 11 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4366,10 +4390,18 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Serial number 56 does not have any valid parent or spouse relationship with other voters in house number 12-33 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4498,10 +4530,18 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Serial number 58 does not have any valid parent or spouse relationship with other voters in house number 12/44 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4976,18 +5016,10 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Serial number 65 does not have any valid parent or spouse relationship with other voters in house number 14 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5050,16 +5082,16 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Serial number 66 does not have any valid parent or spouse relationship with other voters in house number 14 on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 66 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 66 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -5602,10 +5634,18 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Serial number 74 does not have any valid parent or spouse relationship with other voters in house number 15 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5742,18 +5782,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Serial number 76 does not have any valid parent or spouse relationship with other voters in house number 17-21 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5816,18 +5848,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Serial number 77 does not have any valid parent or spouse relationship with other voters in house number 17/21 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7250,18 +7274,10 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Serial number 98 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7324,18 +7340,10 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Serial number 99 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7662,10 +7670,18 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Serial number 104 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7885,7 +7901,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Serial number 107 does not have a valid house number recorded.</t>
+          <t>Serial number 107 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -10152,12 +10168,12 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 255 on street '1-Ward No 23 Madhusoodhanan Nagar' share the same name as serial number 139.</t>
+          <t>Serial number 139 does not have any valid parent or spouse relationship with other voters in house number 255 on street '1-Ward No 23 Madhusoodhanan Nagar'.</t>
         </is>
       </c>
     </row>
@@ -10226,12 +10242,12 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 255 on street '1-Ward No 23 Madhusoodhanan Nagar' share the same name as serial number 140. | Serial number 140 has invalid age value 0.</t>
+          <t>Serial number 140 does not have any valid parent or spouse relationship with other voters in house number 255 on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 140 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -10939,7 +10955,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>Serial number 150 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 150 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 150 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11103,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>House number 'NO.' does not contain any numeric digits.</t>
+          <t>Serial number 152 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11177,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>Serial number 153 does not have any valid parent or spouse relationship with other voters in house number NO. on street '1-Ward No 23 Madhusoodhanan Nagar'. | House number 'NO.' does not contain any numeric digits.</t>
+          <t>Serial number 153 does not have any valid parent or spouse relationship with other voters in house number NO. on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 153 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -11226,16 +11242,16 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO, SAME_NAME_IN_SAME_HOUSE, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>Serial number 154 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Multiple voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar' share the same name. | Serial number 154 was flagged due to rule: TWO_WIVES_SAME_HUSBAND. | Serial number 154 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 154 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -11300,16 +11316,16 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID, INVALID_HOUSE_NO, SAME_NAME_IN_SAME_HOUSE, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>Serial number 155 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 155 was flagged due to rule: INVALID_EPIC_ID. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 155 was flagged due to rule: INVALID_EPIC_ID. | Multiple voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar' share the same name. | Serial number 155 was flagged due to rule: TWO_WIVES_SAME_HUSBAND. | Serial number 155 does not have any valid parent or spouse relationship with other voters in house number NO on street '1-Ward No 23 Madhusoodhanan Nagar'. | Serial number 155 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11399,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>Serial number 156 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 156 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 156 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -12313,7 +12329,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>Serial number 169 shares the same EPIC ID (WJB4308698) with serial number(s) [858] in part(s) ['427'] inside assembly ['117']. | Serial number 169 has invalid age value 0. | Serial number 169 does not have a valid house number recorded.</t>
+          <t>Serial number 169 shares the same EPIC ID (WJB4308698) with serial number(s) [858] in part(s) ['427'] inside assembly ['117']. | Serial number 169 has invalid age value 0. | Serial number 169 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -15162,10 +15178,18 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>0</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>Serial number 210 does not have any valid parent or spouse relationship with other voters in house number 15 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -15434,18 +15458,10 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>1</v>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>Serial number 214 does not have any valid parent or spouse relationship with other voters in house number 17 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -15508,18 +15524,10 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>1</v>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>Serial number 215 does not have any valid parent or spouse relationship with other voters in house number 17 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -15582,18 +15590,10 @@
         </is>
       </c>
       <c r="N217" t="n">
-        <v>1</v>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>Serial number 216 does not have any valid parent or spouse relationship with other voters in house number 17 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -15788,10 +15788,18 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Serial number 219 does not have any valid parent or spouse relationship with other voters in house number 18 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -16274,10 +16282,18 @@
         </is>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Serial number 226 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -16406,10 +16422,18 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Serial number 228 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -17436,10 +17460,18 @@
         </is>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Serial number 243 does not have any valid parent or spouse relationship with other voters in house number 24 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -17651,7 +17683,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>Serial number 246 does not have a valid house number recorded.</t>
+          <t>Serial number 246 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -18079,7 +18111,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>Serial number 252 does not have a valid house number recorded.</t>
+          <t>Serial number 252 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -18350,18 +18382,10 @@
         </is>
       </c>
       <c r="N257" t="n">
-        <v>1</v>
-      </c>
-      <c r="O257" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P257" t="inlineStr">
-        <is>
-          <t>Serial number 256 does not have any valid parent or spouse relationship with other voters in house number 30 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -18424,18 +18448,10 @@
         </is>
       </c>
       <c r="N258" t="n">
-        <v>1</v>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P258" t="inlineStr">
-        <is>
-          <t>Serial number 257 does not have any valid parent or spouse relationship with other voters in house number 30 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -18498,18 +18514,10 @@
         </is>
       </c>
       <c r="N259" t="n">
-        <v>1</v>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P259" t="inlineStr">
-        <is>
-          <t>Serial number 258 does not have any valid parent or spouse relationship with other voters in house number 30 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -18778,18 +18786,10 @@
         </is>
       </c>
       <c r="N263" t="n">
-        <v>1</v>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>Serial number 262 does not have any valid parent or spouse relationship with other voters in house number 31A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -18992,16 +18992,16 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
+          <t>AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>Serial number 265 does not have any valid parent or spouse relationship with other voters in house number 31A on street '3-Ward No 7 Athikkuttai, Anna Nagar'. | Serial number 265 has invalid age value 0.</t>
+          <t>Serial number 265 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -19264,10 +19264,18 @@
         </is>
       </c>
       <c r="N270" t="n">
-        <v>0</v>
-      </c>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>Serial number 269 does not have any valid parent or spouse relationship with other voters in house number 32 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -19957,7 +19965,7 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>Serial number 279 has invalid age value 0. | Serial number 279 does not have a valid house number recorded.</t>
+          <t>Serial number 279 has invalid age value 0. | Serial number 279 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -20022,18 +20030,10 @@
         </is>
       </c>
       <c r="N281" t="n">
-        <v>1</v>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P281" t="inlineStr">
-        <is>
-          <t>Serial number 280 does not have any valid parent or spouse relationship with other voters in house number 39 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -20096,18 +20096,10 @@
         </is>
       </c>
       <c r="N282" t="n">
-        <v>1</v>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P282" t="inlineStr">
-        <is>
-          <t>Serial number 281 does not have any valid parent or spouse relationship with other voters in house number 39 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -20170,10 +20162,18 @@
         </is>
       </c>
       <c r="N283" t="n">
-        <v>0</v>
-      </c>
-      <c r="O283" t="inlineStr"/>
-      <c r="P283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>Serial number 282 does not have any valid parent or spouse relationship with other voters in house number 40 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -20236,10 +20236,18 @@
         </is>
       </c>
       <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="inlineStr"/>
-      <c r="P284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Serial number 283 does not have any valid parent or spouse relationship with other voters in house number 40 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -20442,10 +20450,18 @@
         </is>
       </c>
       <c r="N287" t="n">
-        <v>0</v>
-      </c>
-      <c r="O287" t="inlineStr"/>
-      <c r="P287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>Serial number 286 does not have any valid parent or spouse relationship with other voters in house number 40 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -21242,10 +21258,18 @@
         </is>
       </c>
       <c r="N299" t="n">
-        <v>0</v>
-      </c>
-      <c r="O299" t="inlineStr"/>
-      <c r="P299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Serial number 298 does not have any valid parent or spouse relationship with other voters in house number 44 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -22207,7 +22231,7 @@
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>Serial number 312 does not have a valid house number recorded.</t>
+          <t>Serial number 312 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -23765,7 +23789,7 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>Serial number 335 has invalid age value 0. | Serial number 335 does not have a valid house number recorded.</t>
+          <t>Serial number 335 has invalid age value 0. | Serial number 335 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -24168,10 +24192,18 @@
         </is>
       </c>
       <c r="N342" t="n">
-        <v>0</v>
-      </c>
-      <c r="O342" t="inlineStr"/>
-      <c r="P342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>Serial number 341 does not have any valid parent or spouse relationship with other voters in house number 61 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -24234,10 +24266,18 @@
         </is>
       </c>
       <c r="N343" t="n">
-        <v>0</v>
-      </c>
-      <c r="O343" t="inlineStr"/>
-      <c r="P343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>Serial number 342 does not have any valid parent or spouse relationship with other voters in house number 61 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -24366,16 +24406,16 @@
         </is>
       </c>
       <c r="N345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
+          <t>EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>Serial number 344 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 344 does not have any valid parent or spouse relationship with other voters in house number 62 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+          <t>Serial number 344 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
         </is>
       </c>
     </row>
@@ -25486,18 +25526,10 @@
         </is>
       </c>
       <c r="N361" t="n">
-        <v>1</v>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P361" t="inlineStr">
-        <is>
-          <t>Serial number 360 does not have any valid parent or spouse relationship with other voters in house number 68 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O361" t="inlineStr"/>
+      <c r="P361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -25560,18 +25592,10 @@
         </is>
       </c>
       <c r="N362" t="n">
-        <v>1</v>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P362" t="inlineStr">
-        <is>
-          <t>Serial number 361 does not have any valid parent or spouse relationship with other voters in house number 68 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O362" t="inlineStr"/>
+      <c r="P362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -25939,7 +25963,7 @@
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>Serial number 366 does not have a valid house number recorded.</t>
+          <t>Serial number 366 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -26218,18 +26242,10 @@
         </is>
       </c>
       <c r="N371" t="n">
-        <v>1</v>
-      </c>
-      <c r="O371" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P371" t="inlineStr">
-        <is>
-          <t>Serial number 370 does not have any valid parent or spouse relationship with other voters in house number 72 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O371" t="inlineStr"/>
+      <c r="P371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -27470,10 +27486,18 @@
         </is>
       </c>
       <c r="N389" t="n">
-        <v>0</v>
-      </c>
-      <c r="O389" t="inlineStr"/>
-      <c r="P389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Serial number 388 does not have any valid parent or spouse relationship with other voters in house number 77 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -27800,10 +27824,18 @@
         </is>
       </c>
       <c r="N394" t="n">
-        <v>0</v>
-      </c>
-      <c r="O394" t="inlineStr"/>
-      <c r="P394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>Serial number 393 does not have any valid parent or spouse relationship with other voters in house number 78 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -28435,7 +28467,7 @@
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>Serial number 402 does not have a valid house number recorded.</t>
+          <t>Serial number 402 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -28566,16 +28598,16 @@
         </is>
       </c>
       <c r="N405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P405" t="inlineStr">
         <is>
-          <t>Serial number 404 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 404 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 404 does not have any valid parent or spouse relationship with other voters in house number 83 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -28978,18 +29010,10 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>1</v>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P411" t="inlineStr">
-        <is>
-          <t>Serial number 410 does not have any valid parent or spouse relationship with other voters in house number 86 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -29258,16 +29282,16 @@
         </is>
       </c>
       <c r="N415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>Serial number 414 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 414 was flagged due to rule: INVALID_EPIC_ID. | Serial number 414 does not have any valid parent or spouse relationship with other voters in house number 88-A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -30107,7 +30131,7 @@
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>Serial number 426 has invalid age value 0. | Serial number 426 does not have a valid house number recorded.</t>
+          <t>Serial number 426 has invalid age value 0. | Serial number 426 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -30527,7 +30551,7 @@
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>Serial number 432 does not have any valid parent or spouse relationship with other voters in house number 94 on street '3-Ward No 7 Athikkuttai, Anna Nagar'. | Serial number 432 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 432 was flagged due to rule: INVALID_EPIC_ID. | Serial number 432 does not have any valid parent or spouse relationship with other voters in house number 94 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -30658,18 +30682,10 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>1</v>
-      </c>
-      <c r="O435" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P435" t="inlineStr">
-        <is>
-          <t>Serial number 434 does not have any valid parent or spouse relationship with other voters in house number 95 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -30732,18 +30748,10 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>1</v>
-      </c>
-      <c r="O436" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P436" t="inlineStr">
-        <is>
-          <t>Serial number 435 does not have any valid parent or spouse relationship with other voters in house number 95 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -30938,18 +30946,10 @@
         </is>
       </c>
       <c r="N439" t="n">
-        <v>1</v>
-      </c>
-      <c r="O439" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P439" t="inlineStr">
-        <is>
-          <t>Serial number 438 does not have any valid parent or spouse relationship with other voters in house number 97 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -31144,18 +31144,10 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>1</v>
-      </c>
-      <c r="O442" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P442" t="inlineStr">
-        <is>
-          <t>Serial number 441 does not have any valid parent or spouse relationship with other voters in house number 98 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -31218,18 +31210,10 @@
         </is>
       </c>
       <c r="N443" t="n">
-        <v>1</v>
-      </c>
-      <c r="O443" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P443" t="inlineStr">
-        <is>
-          <t>Serial number 442 does not have any valid parent or spouse relationship with other voters in house number 98 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -32149,7 +32133,7 @@
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>Serial number 455 does not have a valid house number recorded.</t>
+          <t>Serial number 455 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -32502,18 +32486,10 @@
         </is>
       </c>
       <c r="N461" t="n">
-        <v>1</v>
-      </c>
-      <c r="O461" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P461" t="inlineStr">
-        <is>
-          <t>Serial number 460 does not have any valid parent or spouse relationship with other voters in house number 102A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -32733,7 +32709,7 @@
       </c>
       <c r="P464" t="inlineStr">
         <is>
-          <t>Serial number 463 does not have a valid house number recorded.</t>
+          <t>Serial number 463 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -32864,18 +32840,10 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>1</v>
-      </c>
-      <c r="O466" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P466" t="inlineStr">
-        <is>
-          <t>Serial number 465 does not have any valid parent or spouse relationship with other voters in house number 102A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -33004,16 +32972,16 @@
         </is>
       </c>
       <c r="N468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
+          <t>EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P468" t="inlineStr">
         <is>
-          <t>Serial number 467 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 467 does not have any valid parent or spouse relationship with other voters in house number 102A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+          <t>Serial number 467 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
         </is>
       </c>
     </row>
@@ -33416,18 +33384,10 @@
         </is>
       </c>
       <c r="N474" t="n">
-        <v>1</v>
-      </c>
-      <c r="O474" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P474" t="inlineStr">
-        <is>
-          <t>Serial number 473 does not have any valid parent or spouse relationship with other voters in house number 103A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O474" t="inlineStr"/>
+      <c r="P474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -33490,18 +33450,10 @@
         </is>
       </c>
       <c r="N475" t="n">
-        <v>1</v>
-      </c>
-      <c r="O475" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P475" t="inlineStr">
-        <is>
-          <t>Serial number 474 does not have any valid parent or spouse relationship with other voters in house number 103A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O475" t="inlineStr"/>
+      <c r="P475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -33976,18 +33928,10 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>1</v>
-      </c>
-      <c r="O482" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P482" t="inlineStr">
-        <is>
-          <t>Serial number 481 does not have any valid parent or spouse relationship with other voters in house number 107 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -34050,18 +33994,10 @@
         </is>
       </c>
       <c r="N483" t="n">
-        <v>1</v>
-      </c>
-      <c r="O483" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P483" t="inlineStr">
-        <is>
-          <t>Serial number 482 does not have any valid parent or spouse relationship with other voters in house number 107 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -34817,7 +34753,7 @@
       </c>
       <c r="P494" t="inlineStr">
         <is>
-          <t>Serial number 493 has invalid age value 0. | Serial number 493 does not have a valid house number recorded.</t>
+          <t>Serial number 493 has invalid age value 0. | Serial number 493 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -38112,10 +38048,18 @@
         </is>
       </c>
       <c r="N542" t="n">
-        <v>0</v>
-      </c>
-      <c r="O542" t="inlineStr"/>
-      <c r="P542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>Serial number 541 does not have any valid parent or spouse relationship with other voters in house number 124 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -40238,10 +40182,18 @@
         </is>
       </c>
       <c r="N573" t="n">
-        <v>0</v>
-      </c>
-      <c r="O573" t="inlineStr"/>
-      <c r="P573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P573" t="inlineStr">
+        <is>
+          <t>Serial number 572 does not have any valid parent or spouse relationship with other voters in house number 138 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -40444,18 +40396,10 @@
         </is>
       </c>
       <c r="N576" t="n">
-        <v>1</v>
-      </c>
-      <c r="O576" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P576" t="inlineStr">
-        <is>
-          <t>Serial number 575 does not have any valid parent or spouse relationship with other voters in house number 139 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -41062,10 +41006,18 @@
         </is>
       </c>
       <c r="N585" t="n">
-        <v>0</v>
-      </c>
-      <c r="O585" t="inlineStr"/>
-      <c r="P585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P585" t="inlineStr">
+        <is>
+          <t>Serial number 584 does not have any valid parent or spouse relationship with other voters in house number 144 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -41194,10 +41146,18 @@
         </is>
       </c>
       <c r="N587" t="n">
-        <v>0</v>
-      </c>
-      <c r="O587" t="inlineStr"/>
-      <c r="P587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P587" t="inlineStr">
+        <is>
+          <t>Serial number 586 does not have any valid parent or spouse relationship with other voters in house number 144 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -41326,10 +41286,18 @@
         </is>
       </c>
       <c r="N589" t="n">
-        <v>0</v>
-      </c>
-      <c r="O589" t="inlineStr"/>
-      <c r="P589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P589" t="inlineStr">
+        <is>
+          <t>Serial number 588 does not have any valid parent or spouse relationship with other voters in house number 145 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -42388,10 +42356,18 @@
         </is>
       </c>
       <c r="N604" t="n">
-        <v>0</v>
-      </c>
-      <c r="O604" t="inlineStr"/>
-      <c r="P604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P604" t="inlineStr">
+        <is>
+          <t>Serial number 603 does not have any valid parent or spouse relationship with other voters in house number 152 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -42858,10 +42834,18 @@
         </is>
       </c>
       <c r="N611" t="n">
-        <v>0</v>
-      </c>
-      <c r="O611" t="inlineStr"/>
-      <c r="P611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P611" t="inlineStr">
+        <is>
+          <t>Serial number 610 does not have any valid parent or spouse relationship with other voters in house number 154 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -43691,7 +43675,7 @@
       </c>
       <c r="P623" t="inlineStr">
         <is>
-          <t>Serial number 622 is the only voter listed under house number 158 on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | Serial number 622 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 622 was flagged due to rule: INVALID_EPIC_ID. | Serial number 622 is the only voter listed under house number 158 on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427.</t>
         </is>
       </c>
     </row>
@@ -44647,7 +44631,7 @@
       </c>
       <c r="P637" t="inlineStr">
         <is>
-          <t>Serial number 636 has invalid age value 0. | Serial number 636 does not have a valid house number recorded.</t>
+          <t>Serial number 636 has invalid age value 0. | Serial number 636 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -45948,16 +45932,16 @@
         </is>
       </c>
       <c r="N656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
+          <t>EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P656" t="inlineStr">
         <is>
-          <t>Serial number 655 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 655 does not have any valid parent or spouse relationship with other voters in house number 173 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+          <t>Serial number 655 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
         </is>
       </c>
     </row>
@@ -46022,18 +46006,10 @@
         </is>
       </c>
       <c r="N657" t="n">
-        <v>1</v>
-      </c>
-      <c r="O657" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P657" t="inlineStr">
-        <is>
-          <t>Serial number 656 does not have any valid parent or spouse relationship with other voters in house number 173 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O657" t="inlineStr"/>
+      <c r="P657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -46450,18 +46426,10 @@
         </is>
       </c>
       <c r="N663" t="n">
-        <v>1</v>
-      </c>
-      <c r="O663" t="inlineStr">
-        <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
-        </is>
-      </c>
-      <c r="P663" t="inlineStr">
-        <is>
-          <t>Multiple voters in house number 178 on street '3-Ward No 7 Athikkuttai, Anna Nagar' share the same name as serial number 662.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O663" t="inlineStr"/>
+      <c r="P663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -46854,18 +46822,10 @@
         </is>
       </c>
       <c r="N669" t="n">
-        <v>1</v>
-      </c>
-      <c r="O669" t="inlineStr">
-        <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
-        </is>
-      </c>
-      <c r="P669" t="inlineStr">
-        <is>
-          <t>Multiple voters in house number 178 on street '3-Ward No 7 Athikkuttai, Anna Nagar' share the same name as serial number 668.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O669" t="inlineStr"/>
+      <c r="P669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -47002,18 +46962,10 @@
         </is>
       </c>
       <c r="N671" t="n">
-        <v>1</v>
-      </c>
-      <c r="O671" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P671" t="inlineStr">
-        <is>
-          <t>Serial number 670 does not have any valid parent or spouse relationship with other voters in house number 1784 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O671" t="inlineStr"/>
+      <c r="P671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -47076,18 +47028,10 @@
         </is>
       </c>
       <c r="N672" t="n">
-        <v>1</v>
-      </c>
-      <c r="O672" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P672" t="inlineStr">
-        <is>
-          <t>Serial number 671 does not have any valid parent or spouse relationship with other voters in house number 178-AB on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O672" t="inlineStr"/>
+      <c r="P672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -48238,18 +48182,10 @@
         </is>
       </c>
       <c r="N689" t="n">
-        <v>1</v>
-      </c>
-      <c r="O689" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P689" t="inlineStr">
-        <is>
-          <t>Serial number 688 does not have any valid parent or spouse relationship with other voters in house number 183-A on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O689" t="inlineStr"/>
+      <c r="P689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -48822,18 +48758,10 @@
         </is>
       </c>
       <c r="N697" t="n">
-        <v>1</v>
-      </c>
-      <c r="O697" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P697" t="inlineStr">
-        <is>
-          <t>Serial number 696 does not have any valid parent or spouse relationship with other voters in house number 188 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O697" t="inlineStr"/>
+      <c r="P697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -50544,18 +50472,10 @@
         </is>
       </c>
       <c r="N722" t="n">
-        <v>1</v>
-      </c>
-      <c r="O722" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P722" t="inlineStr">
-        <is>
-          <t>Serial number 721 does not have any valid parent or spouse relationship with other voters in house number 202 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O722" t="inlineStr"/>
+      <c r="P722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -50618,18 +50538,10 @@
         </is>
       </c>
       <c r="N723" t="n">
-        <v>1</v>
-      </c>
-      <c r="O723" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P723" t="inlineStr">
-        <is>
-          <t>Serial number 722 does not have any valid parent or spouse relationship with other voters in house number 202 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -50692,18 +50604,10 @@
         </is>
       </c>
       <c r="N724" t="n">
-        <v>1</v>
-      </c>
-      <c r="O724" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P724" t="inlineStr">
-        <is>
-          <t>Serial number 723 does not have any valid parent or spouse relationship with other voters in house number 202 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O724" t="inlineStr"/>
+      <c r="P724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -50766,18 +50670,10 @@
         </is>
       </c>
       <c r="N725" t="n">
-        <v>1</v>
-      </c>
-      <c r="O725" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P725" t="inlineStr">
-        <is>
-          <t>Serial number 724 does not have any valid parent or spouse relationship with other voters in house number 202 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O725" t="inlineStr"/>
+      <c r="P725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -50849,7 +50745,7 @@
       </c>
       <c r="P726" t="inlineStr">
         <is>
-          <t>Serial number 725 does not have a valid house number recorded.</t>
+          <t>Serial number 725 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -51046,18 +50942,10 @@
         </is>
       </c>
       <c r="N729" t="n">
-        <v>1</v>
-      </c>
-      <c r="O729" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P729" t="inlineStr">
-        <is>
-          <t>Serial number 728 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O729" t="inlineStr"/>
+      <c r="P729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -51754,18 +51642,10 @@
         </is>
       </c>
       <c r="N739" t="n">
-        <v>1</v>
-      </c>
-      <c r="O739" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P739" t="inlineStr">
-        <is>
-          <t>Serial number 738 does not have any valid parent or spouse relationship with other voters in house number 211 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O739" t="inlineStr"/>
+      <c r="P739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -51828,18 +51708,10 @@
         </is>
       </c>
       <c r="N740" t="n">
-        <v>1</v>
-      </c>
-      <c r="O740" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P740" t="inlineStr">
-        <is>
-          <t>Serial number 739 does not have any valid parent or spouse relationship with other voters in house number 211 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O740" t="inlineStr"/>
+      <c r="P740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -52800,10 +52672,18 @@
         </is>
       </c>
       <c r="N754" t="n">
-        <v>0</v>
-      </c>
-      <c r="O754" t="inlineStr"/>
-      <c r="P754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O754" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P754" t="inlineStr">
+        <is>
+          <t>Serial number 753 does not have any valid parent or spouse relationship with other voters in house number 220 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -52875,7 +52755,7 @@
       </c>
       <c r="P755" t="inlineStr">
         <is>
-          <t>Serial number 754 does not have a valid house number recorded.</t>
+          <t>Serial number 754 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -52949,7 +52829,7 @@
       </c>
       <c r="P756" t="inlineStr">
         <is>
-          <t>Serial number 755 has age 3, below voting age. | Serial number 755 does not have a valid house number recorded.</t>
+          <t>Serial number 755 has age 3, below voting age. | Serial number 755 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -53014,10 +52894,18 @@
         </is>
       </c>
       <c r="N757" t="n">
-        <v>0</v>
-      </c>
-      <c r="O757" t="inlineStr"/>
-      <c r="P757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O757" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P757" t="inlineStr">
+        <is>
+          <t>Serial number 756 does not have any valid parent or spouse relationship with other voters in house number 220 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -54786,10 +54674,18 @@
         </is>
       </c>
       <c r="N783" t="n">
-        <v>0</v>
-      </c>
-      <c r="O783" t="inlineStr"/>
-      <c r="P783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O783" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P783" t="inlineStr">
+        <is>
+          <t>Serial number 782 does not have any valid parent or spouse relationship with other voters in house number 233 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -54926,18 +54822,10 @@
         </is>
       </c>
       <c r="N785" t="n">
-        <v>1</v>
-      </c>
-      <c r="O785" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P785" t="inlineStr">
-        <is>
-          <t>Serial number 784 does not have any valid parent or spouse relationship with other voters in house number 235 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O785" t="inlineStr"/>
+      <c r="P785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -55000,18 +54888,10 @@
         </is>
       </c>
       <c r="N786" t="n">
-        <v>1</v>
-      </c>
-      <c r="O786" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P786" t="inlineStr">
-        <is>
-          <t>Serial number 785 does not have any valid parent or spouse relationship with other voters in house number 235 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O786" t="inlineStr"/>
+      <c r="P786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -56154,16 +56034,16 @@
         </is>
       </c>
       <c r="N803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P803" t="inlineStr">
         <is>
-          <t>Serial number 802 does not have any valid parent or spouse relationship with other voters in house number 244 on street '3-Ward No 7 Athikkuttai, Anna Nagar'. | Serial number 802 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 802 does not have any valid parent or spouse relationship with other voters in house number 244 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
         </is>
       </c>
     </row>
@@ -57069,7 +56949,7 @@
       </c>
       <c r="P816" t="inlineStr">
         <is>
-          <t>Serial number 815 does not have a valid house number recorded.</t>
+          <t>Serial number 815 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -58666,18 +58546,10 @@
         </is>
       </c>
       <c r="N839" t="n">
-        <v>1</v>
-      </c>
-      <c r="O839" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P839" t="inlineStr">
-        <is>
-          <t>Serial number 838 does not have any valid parent or spouse relationship with other voters in house number 262 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O839" t="inlineStr"/>
+      <c r="P839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -58740,18 +58612,10 @@
         </is>
       </c>
       <c r="N840" t="n">
-        <v>1</v>
-      </c>
-      <c r="O840" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P840" t="inlineStr">
-        <is>
-          <t>Serial number 839 does not have any valid parent or spouse relationship with other voters in house number 262 on street '3-Ward No 7 Athikkuttai, Anna Nagar'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O840" t="inlineStr"/>
+      <c r="P840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -59087,7 +58951,7 @@
       </c>
       <c r="P845" t="inlineStr">
         <is>
-          <t>Serial number 844 is the only voter listed under house number DOOR on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | House number 'DOOR' does not contain any numeric digits.</t>
+          <t>Serial number 844 is the only voter listed under house number DOOR on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | Serial number 844 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -59161,7 +59025,7 @@
       </c>
       <c r="P846" t="inlineStr">
         <is>
-          <t>Serial number 845 does not have a valid house number recorded.</t>
+          <t>Serial number 845 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -59235,7 +59099,7 @@
       </c>
       <c r="P847" t="inlineStr">
         <is>
-          <t>House number 'na' does not contain any numeric digits.</t>
+          <t>Serial number 846 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -59309,7 +59173,7 @@
       </c>
       <c r="P848" t="inlineStr">
         <is>
-          <t>House number 'na' does not contain any numeric digits.</t>
+          <t>Serial number 847 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -59383,7 +59247,7 @@
       </c>
       <c r="P849" t="inlineStr">
         <is>
-          <t>Serial number 848 is the only voter listed under house number NO on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 848 is the only voter listed under house number NO on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | Serial number 848 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -59457,7 +59321,7 @@
       </c>
       <c r="P850" t="inlineStr">
         <is>
-          <t>Serial number 849 is the only voter listed under house number W/O on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | House number 'W/O' does not contain any numeric digits.</t>
+          <t>Serial number 849 is the only voter listed under house number W/O on street '3-Ward No 7 Athikkuttai, Anna Nagar' in booth 427. | Serial number 849 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -59605,7 +59469,7 @@
       </c>
       <c r="P852" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 851, therefore household-level verification could not be performed.</t>
+          <t>Serial number 851 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -59679,7 +59543,7 @@
       </c>
       <c r="P853" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 852, therefore household-level verification could not be performed.</t>
+          <t>Serial number 852 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -59753,7 +59617,7 @@
       </c>
       <c r="P854" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 853, therefore household-level verification could not be performed.</t>
+          <t>Serial number 853 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -59827,7 +59691,7 @@
       </c>
       <c r="P855" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 854, therefore household-level verification could not be performed.</t>
+          <t>Serial number 854 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -59901,7 +59765,7 @@
       </c>
       <c r="P856" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 855, therefore household-level verification could not be performed.</t>
+          <t>Serial number 855 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -59975,7 +59839,7 @@
       </c>
       <c r="P857" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 856, therefore household-level verification could not be performed. | Serial number 856 was flagged due to rule: INVALID_EPIC_ID. | Serial number 856 has invalid age value 0. | Serial number 856 does not have a valid house number recorded.</t>
+          <t>Serial number 856 was flagged due to rule: INVALID_EPIC_ID. | Serial number 856 was flagged due to rule: STREET_NAME_UNAVAILABLE. | Serial number 856 has invalid age value 0. | Serial number 856 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60049,7 +59913,7 @@
       </c>
       <c r="P858" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 857, therefore household-level verification could not be performed.</t>
+          <t>Serial number 857 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60123,7 +59987,7 @@
       </c>
       <c r="P859" t="inlineStr">
         <is>
-          <t>Serial number 858 shares the same EPIC ID (WJB4308698) with serial number(s) [169] in part(s) ['427'] inside assembly ['117']. | Street name is missing for serial number 858, therefore household-level verification could not be performed.</t>
+          <t>Serial number 858 shares the same EPIC ID (WJB4308698) with serial number(s) [169] in part(s) ['427'] inside assembly ['117']. | Serial number 858 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60197,7 +60061,7 @@
       </c>
       <c r="P860" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 859, therefore household-level verification could not be performed.</t>
+          <t>Serial number 859 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60271,7 +60135,7 @@
       </c>
       <c r="P861" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 860, therefore household-level verification could not be performed.</t>
+          <t>Serial number 860 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60345,7 +60209,7 @@
       </c>
       <c r="P862" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 861, therefore household-level verification could not be performed.</t>
+          <t>Serial number 861 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60419,7 +60283,7 @@
       </c>
       <c r="P863" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 862, therefore household-level verification could not be performed.</t>
+          <t>Serial number 862 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60493,7 +60357,7 @@
       </c>
       <c r="P864" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 863, therefore household-level verification could not be performed.</t>
+          <t>Serial number 863 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60567,7 +60431,7 @@
       </c>
       <c r="P865" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 864, therefore household-level verification could not be performed.</t>
+          <t>Serial number 864 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60641,7 +60505,7 @@
       </c>
       <c r="P866" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 865, therefore household-level verification could not be performed.</t>
+          <t>Serial number 865 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60715,7 +60579,7 @@
       </c>
       <c r="P867" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 866, therefore household-level verification could not be performed.</t>
+          <t>Serial number 866 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60789,7 +60653,7 @@
       </c>
       <c r="P868" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 867, therefore household-level verification could not be performed.</t>
+          <t>Serial number 867 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60863,7 +60727,7 @@
       </c>
       <c r="P869" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 868, therefore household-level verification could not be performed.</t>
+          <t>Serial number 868 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -60937,7 +60801,7 @@
       </c>
       <c r="P870" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 869, therefore household-level verification could not be performed.</t>
+          <t>Serial number 869 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -61011,7 +60875,7 @@
       </c>
       <c r="P871" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 870, therefore household-level verification could not be performed. | Serial number 870 has invalid age value 0.</t>
+          <t>Serial number 870 was flagged due to rule: STREET_NAME_UNAVAILABLE. | Serial number 870 has invalid age value 0.</t>
         </is>
       </c>
     </row>
